--- a/backend/output_timetables/sem3_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_pre_mid_timetable.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,7 +482,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -489,12 +492,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -506,27 +509,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>MA261</t>
         </is>
       </c>
     </row>
@@ -585,12 +588,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -617,12 +620,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -634,27 +637,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304</t>
         </is>
       </c>
     </row>
@@ -671,17 +674,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -701,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,7 +787,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -806,7 +809,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B3**</t>
+          <t>**HSS_B3**</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -816,7 +819,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -853,27 +856,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**ELECTIVE_B3**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -900,27 +903,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**CS304**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -947,27 +950,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**CS304**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -994,22 +997,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**DA262**</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Siddharth</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-0-2-0-3</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1019,7 +1022,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1029,7 +1032,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1041,47 +1044,2297 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>**DA262**</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Data Handling</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>**MA261**</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Not Allocated</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>**SUMMARY**</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Total Courses: 8</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Complete: 1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Rate: 12.5%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lectures: 16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Labs: 2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[WARN] 7 issues</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Data Handling</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Total Courses: 6</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Complete: 1</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rate: 16.7%</t>
+          <t>3/1/0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lectures: 12</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Labs: 4</t>
+          <t>0/0/0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[WARN] 5 issues</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3/1/0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 5, Elective: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/8 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>31.4%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 62.9%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 33.4/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>HSS (Ethics)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2+1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Aswath Babu H</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Multivariable Calculus</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Somen B</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = Yes (post-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Differential Equations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Anand Barangi</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Data Handling</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2-0-2-0-3</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Neuro-Linguistics</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Leadership I</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Jagadeesha R Bhat</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sociology for India</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Social Impact</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Holistic Personality</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_pre_mid_timetable.xlsx
@@ -9,9 +9,16 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Room_Allocation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Classroom_Allocation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LTPSC_Compliance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Executive_Summary" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Course_Summary" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Allocation" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Basket_Courses" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Classroom_Utilization" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Section_A" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Basket_Course_Allocations" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>DA262 [C004]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS304 [C004]</t>
         </is>
       </c>
     </row>
@@ -514,7 +521,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261 [L402]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -524,12 +531,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS304 [C304]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [C205]</t>
         </is>
       </c>
     </row>
@@ -578,7 +585,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DA262 [C004]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -588,7 +595,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -605,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS304 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -642,7 +649,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>DA262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -652,12 +659,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -669,12 +676,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>DA262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -684,12 +691,1901 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>CS307 (Lab) [L107]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MA262 [C004]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MA262 [C004]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MA261 [C004]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DA262 [C004]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CS304 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MA261 [L402]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CS304 [C304]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CS307 [C205]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DA262 [C004]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CS307 [C004]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial) [C004]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>HSS_B3 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L408]</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004, L402</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C004, L402, L403, L404</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C004, L403, L404, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C004, L404, L405, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C004, L405, L406</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C004, L406, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C004, L407, L408</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C004, L406, L407</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>C004, L402, L403, L404</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C004, L403, L404, L405</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>C004, L404, L405, L407</t>
         </is>
       </c>
     </row>
@@ -762,22 +2658,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>**CS307**</t>
+          <t>**MA262**</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -802,7 +2698,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -903,34 +2799,34 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**CS304**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elective Basket</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>2/1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>0/0</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>No</t>
@@ -943,34 +2839,34 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>C304, C004</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**CS304**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Elective Basket</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -997,17 +2893,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**MA262**</t>
+          <t>**MA261**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1037,7 +2933,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>L402, C004</t>
         </is>
       </c>
     </row>
@@ -1084,29 +2980,29 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>L106, C004</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>**MA261**</t>
+          <t>**CS307**</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Deepak K T</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1116,7 +3012,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1131,7 +3027,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Not Allocated</t>
+          <t>L107, C205, C004</t>
         </is>
       </c>
     </row>
@@ -1163,7 +3059,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Labs: 2</t>
+          <t>Labs: 4</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1188,6 +3084,5150 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Sessions</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Courses Assigned</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Sample Courses</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization (Sessions/Day)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>CS304, MA261, MA262...</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>DA262</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>3</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>CS304</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>3</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>3</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1338,7 +8378,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>2/0/2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1719,7 +8759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1788,7 +8828,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-12-13 16:20</t>
+          <t>2026-01-18 11:33</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1852,12 +8892,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0/35</t>
+          <t>6/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 0.0%</t>
+          <t>Utilization: 16.7%</t>
         </is>
       </c>
     </row>
@@ -1874,12 +8914,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>31.4%</t>
+          <t>34.3%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 62.9%, B: 0.0%</t>
+          <t>A: 68.6%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -1901,7 +8941,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 33.4/100</t>
+          <t>Score: 34.3/100</t>
         </is>
       </c>
     </row>
@@ -1910,7 +8950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2030,10 +9070,8 @@
           <t>HSS (Ethics)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2+1</t>
-        </is>
+      <c r="F2" t="n">
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2104,10 +9142,8 @@
           <t>Multivariable Calculus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F3" t="n">
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2178,10 +9214,8 @@
           <t>Differential Equations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F4" t="n">
+        <v>2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2252,10 +9286,8 @@
           <t>Data Handling</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F5" t="n">
+        <v>3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2326,10 +9358,8 @@
           <t>Artificial Intelligence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F6" t="n">
+        <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2400,10 +9430,8 @@
           <t>Machine Learning</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F7" t="n">
+        <v>4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2474,10 +9502,8 @@
           <t>Neuro-Linguistics</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F8" t="n">
+        <v>1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2548,10 +9574,8 @@
           <t>Leadership I</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2622,10 +9646,8 @@
           <t>Sociology for India</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F10" t="n">
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2696,10 +9718,8 @@
           <t>Social Impact</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F11" t="n">
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2770,10 +9790,8 @@
           <t>Holistic Personality</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="F12" t="n">
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2844,10 +9862,8 @@
           <t>User Interaction</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="F13" t="n">
+        <v>4</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2918,10 +9934,8 @@
           <t>HSS/IE</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="F14" t="n">
+        <v>3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2992,10 +10006,8 @@
           <t>Electronics Systems</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F15" t="n">
+        <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3066,10 +10078,8 @@
           <t>Introduction of Communication</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F16" t="n">
+        <v>2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3140,10 +10150,8 @@
           <t>Introduction to AI</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F17" t="n">
+        <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3214,10 +10222,8 @@
           <t>Electronic Systems</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F18" t="n">
+        <v>2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3288,10 +10294,8 @@
           <t>Data Science with Python</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="F19" t="n">
+        <v>2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3335,6 +10339,868 @@
       <c r="P19" t="inlineStr">
         <is>
           <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Courses</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ASD352, EC251, EC252, EC254, CS152, CS251, CS253</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DE352, CS162</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lecture Slots</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorial Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Courses in Basket</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Common for Both Sections</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tue 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HS261</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HS361</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_pre_mid_timetable.xlsx
@@ -1910,16 +1910,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1944,16 +1944,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>CS307 (Lab) [L407]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L408]</t>
+          <t>CS307 (Lab) [L407]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, L402</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004, L402, L403, L404</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004, L403, L404, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004, L404, L405, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004, L405, L406</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004, L406, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004, L407, L408</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C004, L406, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C004, L402, L403, L404</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C004, L403, L404, L405</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C004, L404, L405, L407</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4187,7 +4187,7 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -4246,7 +4246,7 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -4389,22 +4389,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -4423,12 +4423,12 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -4448,12 +4448,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4466,11 +4466,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="b">
         <v>0</v>
       </c>
@@ -4482,7 +4478,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -4507,27 +4503,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -4538,15 +4534,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -4566,27 +4566,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -4597,15 +4597,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -4625,27 +4629,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -4656,15 +4660,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -4684,27 +4692,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -4715,15 +4723,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -4743,27 +4755,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -4774,15 +4786,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -4802,12 +4818,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -4845,7 +4861,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -4865,12 +4881,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4908,7 +4924,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -4928,27 +4944,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I26" t="b">
@@ -4959,19 +4975,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>DA261</t>
         </is>
       </c>
     </row>
@@ -4991,27 +5003,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -5022,19 +5034,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -5054,27 +5062,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -5085,19 +5093,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -5117,27 +5121,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -5148,19 +5152,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DA261 (Lab)</t>
         </is>
       </c>
     </row>
@@ -5180,27 +5180,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -5211,19 +5211,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>DA262</t>
         </is>
       </c>
     </row>
@@ -5243,27 +5239,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -5277,12 +5273,12 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -5307,22 +5303,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -5336,12 +5332,12 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -5361,12 +5357,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5381,7 +5377,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -5395,7 +5391,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -5420,25 +5416,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I34" t="b">
         <v>0</v>
       </c>
@@ -5447,15 +5447,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -5475,27 +5479,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -5506,15 +5510,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -5534,27 +5542,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -5565,15 +5573,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -5593,25 +5605,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I37" t="b">
         <v>0</v>
       </c>
@@ -5620,15 +5636,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -5648,7 +5668,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -5658,17 +5678,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -5686,12 +5706,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5731,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -5721,17 +5741,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -5749,12 +5769,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5794,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -5784,17 +5804,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -5812,12 +5832,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -5837,27 +5857,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -5868,19 +5888,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -5900,27 +5916,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -5931,19 +5947,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -5963,27 +5975,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -5994,19 +6006,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
     </row>
@@ -6026,27 +6034,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -6057,19 +6065,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
     </row>
@@ -6089,7 +6093,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -6099,17 +6103,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -6120,19 +6124,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6152,12 +6152,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6167,12 +6167,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -6183,19 +6183,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
     </row>
@@ -6215,12 +6211,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -6230,12 +6226,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -6246,19 +6242,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
     </row>
@@ -6278,12 +6270,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -6293,12 +6285,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -6309,19 +6301,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
     </row>
@@ -6351,17 +6339,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -6379,12 +6367,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>ASD352</t>
         </is>
       </c>
     </row>
@@ -6414,17 +6402,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -6442,12 +6430,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC251</t>
         </is>
       </c>
     </row>
@@ -6477,17 +6465,17 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -6505,12 +6493,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC252</t>
         </is>
       </c>
     </row>
@@ -6530,27 +6518,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -6568,12 +6556,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC254</t>
         </is>
       </c>
     </row>
@@ -6593,27 +6581,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -6631,12 +6619,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS152</t>
         </is>
       </c>
     </row>
@@ -6656,27 +6644,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -6694,12 +6682,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS251</t>
         </is>
       </c>
     </row>
@@ -6719,27 +6707,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -6757,12 +6745,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS253</t>
         </is>
       </c>
     </row>
@@ -6782,12 +6770,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6813,11 +6801,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>L406</t>
@@ -6825,7 +6809,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6845,12 +6829,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6876,19 +6860,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -6908,7 +6888,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -6923,7 +6903,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -6939,19 +6919,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>DA261</t>
         </is>
       </c>
     </row>
@@ -6966,32 +6942,32 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I59" t="b">
@@ -7005,12 +6981,12 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
     </row>
@@ -7025,32 +7001,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I60" t="b">
@@ -7064,1161 +7040,12 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>MA261</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>3</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>DA261 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>3</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>DA261 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>3</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>DA261</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>3</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>DA262</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>3</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>3</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>3</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>3</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>CS253</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>3</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>3</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>3</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>3</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>3</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>DA261</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>3</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>3</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>CS304</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>3</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>3</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
           <t>CS307 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>3</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>CS304 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>3</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>MA262</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>CS307</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem3_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_pre_mid_timetable.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,224 +479,288 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DA262 [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA261 [L402]</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>MA261 [C001]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C304]</t>
+          <t>DA262 [C102]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307 [C205]</t>
+          <t>CS304 [C102]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS304 [C102]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DA262 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C004]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>DA262 [C102]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CS307 [C101]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>CS304 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L106]</t>
+          <t>ELECTIVE_B3 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L403]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L402]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L106]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L403]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L107]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L402]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C102]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C102]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C102]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C102]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -778,16 +842,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -808,16 +872,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -876,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>28.75</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -910,16 +974,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -944,16 +1008,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1080,16 +1144,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1284,16 +1348,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1556,16 +1620,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1740,16 +1804,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1910,16 +1974,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1972,7 +2036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2015,224 +2079,288 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA262 [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MA261 [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DA262 [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CS304 [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA261 [L402]</t>
+          <t>MA262 [C002]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>MA261 [C001]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS304 [C304]</t>
+          <t>DA262 [C102]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS307 [C205]</t>
+          <t>CS304 [C102]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS304 [C102]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DA262 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial) [C004]</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3 (Tutorial)</t>
+          <t>DA262 [C102]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CS307 [C101]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS304 (Tutorial) [C102]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L208]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L407]</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>HSS_B3 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>HSS_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DA262 (Lab) [L208]</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DA262 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L407]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C102]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C102]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C102]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C102]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2413,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003, C202</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2430,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, C102</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2447,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C002, C004</t>
         </is>
       </c>
     </row>
@@ -2331,12 +2459,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C003, C101</t>
         </is>
       </c>
     </row>
@@ -2348,12 +2476,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003, C101</t>
         </is>
       </c>
     </row>
@@ -2365,12 +2493,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C102</t>
         </is>
       </c>
     </row>
@@ -2382,24 +2510,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101, C104</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -2407,12 +2535,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CS162</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -2420,19 +2548,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>HS362</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2442,7 +2566,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>HS363</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -2455,7 +2579,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -2468,7 +2592,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -2476,12 +2600,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -2489,38 +2613,46 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>C004, C102</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>C001, C002, C004</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HS301</t>
+          <t>EC253</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -2533,41 +2665,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002, C003, C101</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EC253</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -2575,17 +2703,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101, C104</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2826,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -2839,14 +2967,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C304, C004</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**ELECTIVE_B5**</t>
+          <t>**HSS_B5**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2933,7 +3061,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>L402, C004</t>
+          <t>C002, C001</t>
         </is>
       </c>
     </row>
@@ -2980,7 +3108,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>L106, C004</t>
+          <t>L403, C102</t>
         </is>
       </c>
     </row>
@@ -3027,7 +3155,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>L107, C205, C004</t>
+          <t>L402, C101</t>
         </is>
       </c>
     </row>
@@ -3147,26 +3275,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
+          <t>120</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3174,42 +3297,42 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CS304, MA261, MA262...</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3217,23 +3340,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MA262, MA261</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3248,11 +3371,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3264,38 +3387,38 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -3303,38 +3426,38 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>MINOR: Design, MINOR: DSAI, MINOR: Cybersecurity...</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -3362,7 +3485,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3381,7 +3504,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -3393,12 +3516,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3487,6 +3610,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3509,22 +3637,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -3538,12 +3666,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3568,22 +3701,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -3597,12 +3730,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>CS304 (Tutorial)</t>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3622,27 +3760,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I4" t="b">
@@ -3656,12 +3794,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -3681,12 +3824,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3696,12 +3839,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -3715,12 +3858,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3745,22 +3893,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -3774,12 +3922,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3804,22 +3957,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -3833,12 +3986,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>MA262</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3863,22 +4021,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -3892,12 +4050,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3917,27 +4080,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I9" t="b">
@@ -3951,12 +4114,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3976,27 +4144,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I10" t="b">
@@ -4010,12 +4178,17 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -4035,27 +4208,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I11" t="b">
@@ -4069,12 +4242,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -4094,27 +4272,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -4128,12 +4306,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4153,12 +4336,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -4168,12 +4351,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I13" t="b">
@@ -4187,12 +4370,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4212,29 +4400,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="b">
         <v>0</v>
       </c>
@@ -4246,12 +4430,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4271,27 +4460,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I15" t="b">
@@ -4305,12 +4494,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4330,12 +4524,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4350,7 +4544,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -4364,12 +4558,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4588,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4417,18 +4616,23 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4448,7 +4652,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4458,32 +4662,41 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4716,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4513,17 +4726,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -4531,22 +4744,23 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4566,27 +4780,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -4594,22 +4808,23 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -4629,27 +4844,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -4657,22 +4872,23 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -4692,27 +4908,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -4720,22 +4936,23 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4755,27 +4972,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -4783,22 +5000,23 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4818,27 +5036,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -4846,22 +5064,23 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4881,27 +5100,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -4909,22 +5128,23 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4944,12 +5164,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -4972,18 +5192,23 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5008,7 +5233,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -5034,7 +5259,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>C202</t>
@@ -5042,7 +5271,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5062,12 +5296,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5093,15 +5327,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5121,27 +5364,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -5152,15 +5395,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5180,22 +5432,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -5211,15 +5463,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5239,22 +5500,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5270,15 +5531,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5298,29 +5568,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="b">
         <v>0</v>
       </c>
@@ -5329,15 +5595,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5357,12 +5632,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5388,15 +5663,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5416,27 +5700,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5454,12 +5738,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5479,12 +5768,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -5522,7 +5811,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5542,29 +5836,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="b">
         <v>0</v>
       </c>
@@ -5580,12 +5870,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5605,27 +5900,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -5643,12 +5938,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5668,27 +5968,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I38" t="b">
@@ -5706,12 +6006,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5731,27 +6036,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -5769,12 +6074,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5794,27 +6104,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -5832,12 +6142,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
           <t>CS251</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5862,22 +6177,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I41" t="b">
@@ -5888,15 +6203,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5921,22 +6245,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -5947,15 +6271,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5980,17 +6313,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -6006,15 +6339,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6034,29 +6376,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="b">
         <v>0</v>
       </c>
@@ -6065,15 +6403,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6093,27 +6440,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -6124,15 +6471,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6152,12 +6508,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -6183,15 +6539,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6211,12 +6576,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -6242,15 +6607,24 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -6275,7 +6649,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -6304,14 +6678,15 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
-        </is>
-      </c>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6329,27 +6704,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -6360,21 +6735,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6392,27 +6764,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -6423,21 +6795,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
+          <t>DA261 (Lab)</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6455,29 +6824,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="b">
         <v>0</v>
       </c>
@@ -6486,21 +6851,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -6518,27 +6880,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -6549,21 +6911,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>EC254</t>
-        </is>
-      </c>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -6581,27 +6940,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -6612,21 +6971,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CS152</t>
-        </is>
-      </c>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -6644,27 +7000,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I54" t="b">
@@ -6675,21 +7031,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>CS251</t>
-        </is>
-      </c>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -6707,27 +7060,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I55" t="b">
@@ -6738,21 +7091,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>CS253</t>
-        </is>
-      </c>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -6775,22 +7125,22 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="I56" t="b">
@@ -6804,250 +7154,15 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>3</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>3</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C304</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>DA261</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>3</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>L106</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
           <t>CS307 (Lab)</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>3</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>L106</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7356,7 +7471,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7413,7 +7528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7433,7 +7548,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -7655,7 +7770,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 23:36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7741,12 +7856,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>34.3%</t>
+          <t>36.7%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 68.6%, B: 0.0%</t>
+          <t>A: 73.3%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7883,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 34.3/100</t>
+          <t>Score: 35.0/100</t>
         </is>
       </c>
     </row>
@@ -9180,7 +9295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9258,11 +9373,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ASD352, EC251, EC252, EC254, CS152, CS251, CS253</t>
+          <t>ASD352, EC251, EC252, CS253, EC254, CS152</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -9283,7 +9398,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -9293,21 +9408,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DE352, CS162</t>
+          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -9328,7 +9443,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -9338,7 +9453,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -9348,11 +9463,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -9365,51 +9480,6 @@
         </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>Semester 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>A &amp; B (Common)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>Semester 3</t>
         </is>
@@ -9426,7 +9496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9493,7 +9563,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -9528,7 +9598,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -9563,7 +9633,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -9584,7 +9654,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -9598,7 +9668,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -9619,7 +9689,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -9633,7 +9703,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -9654,7 +9724,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -9668,7 +9738,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -9684,26 +9754,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ELECTIVE_B3</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -9719,26 +9789,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -9754,26 +9824,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CS162</t>
+          <t>HS362</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Fri 14:30-15:30</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -9794,7 +9864,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>HS363</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -9829,7 +9899,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -9864,7 +9934,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -9894,17 +9964,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -9913,7 +9983,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -9921,111 +9991,6 @@
         </is>
       </c>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>HS364</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>6</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>HSS_B3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>HS365</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>6</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>HSS_B5</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>HS301</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Fri 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/backend/output_timetables/sem3_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_pre_mid_timetable.xlsx
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1416,16 +1416,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1450,16 +1450,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L106]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L208]</t>
+          <t>CS307 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L106]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L208]</t>
+          <t>CS307 (Lab) [L206]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C002, C003, C202</t>
+          <t>C002, C004</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C001, C002, C004</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C003, C101</t>
+          <t>C001, C101</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C002, C003, C101</t>
+          <t>C101, C102</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C001, C102</t>
+          <t>C102, C104</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101, C104</t>
+          <t>C104, C202</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C004, C102</t>
+          <t>C003, C004</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>C001, C002, C004</t>
+          <t>C001, C002</t>
         </is>
       </c>
     </row>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C002, C003, C101</t>
+          <t>C101, C102</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C101, C104</t>
+          <t>C104, C202</t>
         </is>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4178,7 +4178,7 @@
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -4242,7 +4242,7 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -4814,7 +4814,7 @@
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -4878,7 +4878,7 @@
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -5233,24 +5233,20 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="b">
         <v>0</v>
       </c>
@@ -5259,26 +5255,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -5306,12 +5294,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -5334,7 +5322,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -5374,17 +5362,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -5402,7 +5390,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -5447,14 +5435,10 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="b">
         <v>0</v>
       </c>
@@ -5470,7 +5454,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -5510,12 +5494,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5538,7 +5522,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -5578,15 +5562,19 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
@@ -5602,7 +5590,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -5642,17 +5630,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -5670,12 +5658,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -5700,22 +5688,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -5738,17 +5726,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5768,27 +5756,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -5799,26 +5787,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>DA261</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5846,15 +5826,19 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
@@ -5870,12 +5854,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -5910,19 +5894,15 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="b">
         <v>0</v>
       </c>
@@ -5938,12 +5918,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -5978,12 +5958,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -6006,12 +5986,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6079,7 +6059,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6147,7 +6127,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6172,12 +6152,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -6187,7 +6167,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -6210,7 +6190,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -6220,7 +6200,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6240,27 +6220,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -6278,17 +6258,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6313,17 +6293,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -6339,26 +6319,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6386,15 +6358,19 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
       <c r="I44" t="b">
         <v>0</v>
       </c>
@@ -6410,12 +6386,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -6450,19 +6426,15 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="b">
         <v>0</v>
       </c>
@@ -6478,12 +6450,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -6546,12 +6518,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -6614,12 +6586,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -6644,7 +6616,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -6675,18 +6647,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>DA261</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -6704,27 +6684,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -6735,18 +6715,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -6764,27 +6752,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I50" t="b">
@@ -6795,18 +6783,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B3</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>DA261 (Lab)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -6824,25 +6820,29 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="I51" t="b">
         <v>0</v>
       </c>
@@ -6854,12 +6854,12 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -6880,12 +6880,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6895,12 +6895,12 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -6914,12 +6914,12 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>DA261</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -6940,12 +6940,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6955,12 +6955,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I53" t="b">
@@ -6974,195 +6974,15 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>3</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>L208</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>3</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>L208</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>3</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>L106</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/output_timetables/sem3_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_pre_mid_timetable.xlsx
@@ -484,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
     </row>
@@ -516,27 +516,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261 [C001]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DA262 [C102]</t>
+          <t>DA262 [C304]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS304 [C102]</t>
+          <t>CS304 [C202]</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [C002]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -563,12 +563,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS304 [C102]</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DA262 [C102]</t>
+          <t>DA262 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,22 +676,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L403]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L402]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L403]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L402]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -740,27 +740,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
     </row>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -906,16 +906,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>56.25</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>2.5</v>
       </c>
       <c r="E7" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>55.00000000000001</v>
+        <v>6.25</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1620,16 +1620,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2084,27 +2084,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
     </row>
@@ -2116,27 +2116,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA262 [C002]</t>
+          <t>MA262 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA261 [C001]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DA262 [C102]</t>
+          <t>DA262 [C304]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CS304 [C102]</t>
+          <t>CS304 [C202]</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [C002]</t>
+          <t>MA261 [C003]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS304 [C102]</t>
+          <t>CS304 [C101]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DA262 [C102]</t>
+          <t>DA262 [C004]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS307 [C101]</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L206]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L206]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2340,27 +2340,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C004]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C004]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C004]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C004]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C004]</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C002, C004</t>
+          <t>C202, C203</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C003, C004</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C001, C002</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -2459,12 +2459,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C001, C101</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -2476,12 +2476,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C101, C102</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -2493,12 +2493,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C102, C104</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -2510,24 +2510,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C104, C202</t>
+          <t>C305</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -2535,12 +2535,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>CS162</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -2548,15 +2548,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HS362</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2566,7 +2570,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -2579,7 +2583,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -2592,7 +2596,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HS365</t>
+          <t>HS362</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -2600,12 +2604,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HS301</t>
+          <t>HS363</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -2613,46 +2617,38 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>C003, C004</t>
-        </is>
-      </c>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>C001, C002</t>
-        </is>
-      </c>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>HSS_B5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>EC253</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -2665,37 +2661,41 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C101, C102</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CS162</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DE352</t>
+          <t>EC253</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -2703,17 +2703,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C104, C202</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2967,14 +2967,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202, C102, C101</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**HSS_B5**</t>
+          <t>**ELECTIVE_B5**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C002, C001</t>
+          <t>C004, C003</t>
         </is>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>L403, C102</t>
+          <t>C004, C304, L207</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>L402, C101</t>
+          <t>C004, L106, C102</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3275,7 +3275,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3285,7 +3285,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -3313,26 +3318,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3340,16 +3345,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MA262, MA261</t>
+          <t>CS307, MINOR: DSAI, MINOR: VLSI...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -3375,7 +3380,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3387,12 +3392,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3423,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -3426,23 +3431,23 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>MINOR: Design, MINOR: DSAI, MINOR: Cybersecurity...</t>
+          <t>CS307, CS304 (Tutorial)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3452,16 +3457,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -3473,19 +3478,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3495,7 +3500,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3504,7 +3509,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -3516,10 +3521,96 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>DA262 (Lab)</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>0.4</t>
         </is>
@@ -3536,7 +3627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3572,47 +3663,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Room Type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Conflict</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Allocation Type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Basket</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>course</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
         </is>
       </c>
     </row>
@@ -3642,42 +3743,50 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>MINOR: Generative Ai</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3706,42 +3815,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>MA262</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3770,42 +3887,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>CS304 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
         <is>
           <t>C102</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>CS304 (Tutorial)</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3834,42 +3959,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>MINOR: VLSI</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3898,42 +4031,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>MINOR: Cybersecurity</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3962,42 +4103,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>MA262</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4026,42 +4175,50 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>MA261</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>MA261</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4090,42 +4247,50 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>DA262</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4154,42 +4319,50 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Software Lab</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Computers</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
         <is>
           <t>L207</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>DA262 (Lab)</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4218,42 +4391,50 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>DA262 (Lab)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Software Lab</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Computers</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
         <is>
           <t>L207</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>DA262 (Lab)</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4282,42 +4463,50 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>MINOR: DSAI</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4346,42 +4535,50 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>MINOR: Design</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4410,38 +4607,50 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>MA261</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4470,42 +4679,50 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>MINOR: Generative Ai</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4534,42 +4751,50 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>MINOR: VLSI</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4598,42 +4823,50 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>DA262</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>DA262</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4662,42 +4895,50 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>CS304</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4726,42 +4967,50 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4790,42 +5039,50 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>CS307 (Lab)</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4854,42 +5111,50 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>L206</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>CS307 (Lab)</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4918,42 +5183,50 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>MINOR: Cybersecurity</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4982,42 +5255,50 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>MINOR: DSAI</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -5046,42 +5327,50 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>CS304</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>CS304</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -5110,42 +5399,50 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5174,42 +5471,50 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>MINOR: Design</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5233,40 +5538,60 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>MA261</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -5294,46 +5619,54 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>EC251</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5362,46 +5695,54 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>EC252</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5430,42 +5771,54 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5494,46 +5847,54 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5562,46 +5923,54 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5630,46 +5999,54 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5688,56 +6065,64 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5756,49 +6141,65 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>DA261</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5826,46 +6227,54 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5894,42 +6303,54 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -5958,46 +6379,54 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -6026,46 +6455,54 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -6094,46 +6531,54 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -6152,56 +6597,64 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>ASD352</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -6220,56 +6673,64 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS251</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Tutorial</t>
-        </is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -6293,44 +6754,60 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS304</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6358,46 +6835,54 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -6426,42 +6911,54 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>CS152</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -6490,46 +6987,54 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -6558,431 +7063,55 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>ELECTIVE_B3</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>CS253</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>3</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>3</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>3</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B3</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>3</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>15:30-17:00</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>3</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>DA262 (Lab)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>3</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7291,7 +7420,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7348,7 +7477,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HSS_B5</t>
+          <t>HSS_B3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7368,7 +7497,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -7590,7 +7719,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-19 23:36</t>
+          <t>2026-01-26 01:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7654,12 +7783,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6/36</t>
+          <t>8/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 16.7%</t>
+          <t>Utilization: 22.2%</t>
         </is>
       </c>
     </row>
@@ -7676,12 +7805,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>36.7%</t>
+          <t>37.8%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 73.3%, B: 0.0%</t>
+          <t>A: 75.6%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -7703,7 +7832,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 35.0/100</t>
+          <t>Score: 35.3/100</t>
         </is>
       </c>
     </row>
@@ -9115,7 +9244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9193,11 +9322,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ASD352, EC251, EC252, CS253, EC254, CS152</t>
+          <t>ASD352, EC251, EC252, EC254, CS152, CS251, CS253</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -9218,7 +9347,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -9228,21 +9357,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+          <t>DE352, CS162</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -9263,43 +9392,88 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HS261, HS361, HS362, HS363, HS364, HS365</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>A &amp; B (Common)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Semester 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>HSS_B5</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Mon</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>15:30-17:00</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Fri</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>HS301</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>A &amp; B (Common)</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>DSAI</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Semester 3</t>
         </is>
@@ -9316,7 +9490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9383,7 +9557,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -9418,7 +9592,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -9453,7 +9627,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -9474,7 +9648,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -9488,7 +9662,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -9509,7 +9683,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EC254</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -9523,7 +9697,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -9544,7 +9718,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS152</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -9558,7 +9732,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -9574,26 +9748,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+          <t>Mon 13:00-14:30, Wed 13:00-14:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Tue 14:30-15:30</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -9609,26 +9783,26 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -9644,26 +9818,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HSS_B3</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>CS162</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fri 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -9684,7 +9858,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>HS261</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -9719,7 +9893,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -9754,7 +9928,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HS365</t>
+          <t>HS362</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -9784,33 +9958,138 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HS363</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HS364</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HSS_B3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HS365</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mon 10:30-12:00, Wed 10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>HSS_B5</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>HS301</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Fri 14:30-15:30</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/backend/output_timetables/sem3_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_pre_mid_timetable.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DA262 [C304]</t>
+          <t>DA262 [C302]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [C003]</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L207]</t>
+          <t>DA262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L207]</t>
+          <t>DA262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -906,16 +906,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1552,16 +1552,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1620,16 +1620,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DA262 [C304]</t>
+          <t>DA262 [C302]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [C003]</t>
+          <t>MA261 [C002]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L207]</t>
+          <t>DA262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L207]</t>
+          <t>DA262 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C202, C203</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -2791,17 +2791,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Somen Bhattacharjee</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Krishendu, Girish</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3026,17 +3026,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, C003</t>
+          <t>C004, C002</t>
         </is>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C004, C304, L207</t>
+          <t>C004, L106, C302</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Deepak K T</t>
+          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C004, L106, C102</t>
+          <t>C004, L207, C102</t>
         </is>
       </c>
     </row>
@@ -3172,12 +3172,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Complete: 1</t>
+          <t>Complete: 3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rate: 12.5%</t>
+          <t>Rate: 37.5%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[WARN] 7 issues</t>
+          <t>[WARN] 5 issues</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -3275,7 +3275,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>CS307, MINOR: DSAI, MINOR: VLSI...</t>
+          <t>MINOR: Cybersecurity, MA261, CS307...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -3490,7 +3490,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DA262 (Lab)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -4204,7 +4204,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -4348,7 +4348,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -4420,7 +4420,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4838,7 +4838,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -4852,7 +4852,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -5068,7 +5068,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -5140,7 +5140,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5728,7 +5728,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -5804,7 +5804,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -5880,7 +5880,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6318,7 +6318,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6716,7 +6716,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -6850,7 +6850,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7259,12 +7259,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3/1/0</t>
+          <t>3/0/2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -7284,12 +7284,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[OK]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -7539,17 +7539,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[FAIL]</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -7596,17 +7596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[FAIL]</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7847,7 +7847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7953,16 +7953,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HS261</t>
+          <t>MA262</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HSS (Ethics)</t>
+          <t>Multivariable Calculus</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -7980,12 +7980,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Aswath Babu H</t>
+          <t>Somen B</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -7995,17 +7995,17 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+          <t>Half Semester = No, Post mid-sem = Yes (post-mid only)</t>
         </is>
       </c>
     </row>
@@ -8025,12 +8025,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MA262</t>
+          <t>MA261</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Multivariable Calculus</t>
+          <t>Differential Equations</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Anand Barangi</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Half Semester = No, Post mid-sem = Yes (post-mid only)</t>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
         </is>
       </c>
     </row>
@@ -8097,20 +8097,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>DA262</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Differential Equations</t>
+          <t>Data Handling</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>2-0-2-0-3</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -8120,11 +8120,11 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Anand Barangi</t>
+          <t>Siddharth</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -8169,34 +8169,34 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS304</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Data Handling</t>
+          <t>Artificial Intelligence</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2-0-2-0-3</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Siddharth</t>
+          <t>Animesh Chaturvedi</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -8241,12 +8241,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -8254,21 +8254,21 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -8313,34 +8313,34 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>HS361</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Neuro-Linguistics</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>1-0-0-0-1</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
+          <t>Manjunath K V</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -8360,7 +8360,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -8385,12 +8385,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>HS361</t>
+          <t>HS362</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Neuro-Linguistics</t>
+          <t>Leadership I</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -8412,7 +8412,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Manjunath K V</t>
+          <t>Jagadeesha R Bhat</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -8457,12 +8457,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HS362</t>
+          <t>HS363</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Leadership I</t>
+          <t>Sociology for India</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Jagadeesha R Bhat</t>
+          <t>Anushree Kini</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -8529,12 +8529,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HS363</t>
+          <t>HS364</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sociology for India</t>
+          <t>Social Impact</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Anushree Kini</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -8601,12 +8601,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>HS364</t>
+          <t>HS365</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Social Impact</t>
+          <t>Holistic Personality</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -8628,7 +8628,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Rajesh N S</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -8673,34 +8673,34 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HS365</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Holistic Personality</t>
+          <t>User Interaction</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1-0-0-0-1</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Sandesh P</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -8745,34 +8745,34 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>User Interaction</t>
+          <t>Electronics Systems</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Sandesh P</t>
+          <t>Pankaj</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -8782,14 +8782,14 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -8797,7 +8797,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>
@@ -8817,24 +8817,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HS301</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>HSS/IE</t>
+          <t>Introduction of Communication</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -8844,24 +8844,24 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Rajesh Kumar</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>ECE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
       <c r="O14" t="inlineStr">
         <is>
           <t>Yes</t>
@@ -8869,7 +8869,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>
@@ -8889,12 +8889,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>EC251</t>
+          <t>CS253</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Electronics Systems</t>
+          <t>Introduction to AI</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -8916,7 +8916,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Pankaj</t>
+          <t>Sibasankar Padhy</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -8961,12 +8961,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>EC252</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Introduction of Communication</t>
+          <t>Electronic Systems</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Rajesh Kumar</t>
+          <t>Mallikarjun Kande</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -9033,12 +9033,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CS253</t>
+          <t>CS152</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Introduction to AI</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Sibasankar Padhy</t>
+          <t>Abdul Wahid</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -9084,150 +9084,6 @@
         </is>
       </c>
       <c r="P17" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Electronic Systems</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Mallikarjun Kande</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CS152</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Data Science with Python</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Abdul Wahid</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
         <is>
           <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>

--- a/backend/output_timetables/sem3_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem3_DSAI_pre_mid_timetable.xlsx
@@ -484,27 +484,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DA262 [C302]</t>
+          <t>DA262 [C104]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [C002]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -563,12 +563,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS304 [C101]</t>
+          <t>CS304 [C202]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307 [C102]</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DA262 [C004]</t>
+          <t>DA262 [C202]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C204]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L106]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L106]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -740,27 +740,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22.5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>56.25</v>
+        <v>15</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6.25</v>
+        <v>21.25</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1076,16 +1076,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1246,16 +1246,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75</v>
+        <v>11.25</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1314,16 +1314,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1416,16 +1416,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.25</v>
+        <v>12.5</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1552,16 +1552,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -2084,27 +2084,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DA262 [C302]</t>
+          <t>DA262 [C104]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA261 [C002]</t>
+          <t>MA261 [C004]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2163,12 +2163,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS304 [C101]</t>
+          <t>CS304 [C202]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307 [C102]</t>
+          <t>CS307 [C101]</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DA262 [C004]</t>
+          <t>DA262 [C202]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C204]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L106]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DA262 (Lab) [L106]</t>
+          <t>DA262 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2340,27 +2340,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C004]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C004]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C004]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C004]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C004]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C202, C102, C101</t>
+          <t>C102, C202</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C004, C002</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>C004, L106, C302</t>
+          <t>C104, L207, C202</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3155,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>C004, L207, C102</t>
+          <t>C101, C204, L207</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3275,26 +3275,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3302,42 +3302,42 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA261</t>
+          <t>MA262, MA261</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3345,23 +3345,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity, MA261, CS307...</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3388,23 +3388,23 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>CS304 (Tutorial), MINOR: Generative Ai, MINOR: Design...</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS307, CS304 (Tutorial)</t>
+          <t>MINOR: Generative Ai, MINOR: Design, MINOR: VLSI...</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -3474,23 +3474,23 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>DA262, CS304</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>DA262</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -3533,7 +3533,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3552,67 +3552,24 @@
         </is>
       </c>
       <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>DA262 (Lab)</t>
+          <t>DA262 (Lab), CS307 (Lab)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>L207</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.4</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -3748,17 +3705,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -3772,7 +3729,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -3964,17 +3921,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -3988,7 +3945,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -4036,17 +3993,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -4060,7 +4017,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -4180,17 +4137,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -4204,7 +4161,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -4252,17 +4209,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -4276,7 +4233,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -4348,7 +4305,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -4420,7 +4377,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4468,17 +4425,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -4492,7 +4449,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4540,17 +4497,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -4564,7 +4521,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -4684,17 +4641,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -4708,7 +4665,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -4756,17 +4713,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -4780,7 +4737,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -4852,7 +4809,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -4924,7 +4881,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4972,17 +4929,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -4996,7 +4953,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -5188,17 +5145,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -5212,7 +5169,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5260,17 +5217,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -5284,7 +5241,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -5428,7 +5385,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5476,17 +5433,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -5500,7 +5457,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5558,7 +5515,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -5576,7 +5533,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5634,7 +5591,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -5652,7 +5609,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5710,7 +5667,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -5728,7 +5685,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -5786,7 +5743,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -5804,7 +5761,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -5862,7 +5819,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -5880,7 +5837,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -5956,7 +5913,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -6014,7 +5971,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -6032,7 +5989,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6090,7 +6047,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -6108,7 +6065,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -6166,7 +6123,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -6184,7 +6141,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -6242,7 +6199,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -6260,7 +6217,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6318,7 +6275,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6336,7 +6293,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -6394,7 +6351,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -6412,7 +6369,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6488,7 +6445,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6546,7 +6503,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -6564,7 +6521,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6622,7 +6579,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6640,7 +6597,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6698,7 +6655,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -6716,7 +6673,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -6774,7 +6731,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -6792,7 +6749,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -6850,7 +6807,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -6868,7 +6825,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -6926,7 +6883,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -6944,7 +6901,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7020,7 +6977,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7078,7 +7035,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -7096,7 +7053,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -7719,7 +7676,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7783,12 +7740,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8/36</t>
+          <t>7/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 22.2%</t>
+          <t>Utilization: 19.4%</t>
         </is>
       </c>
     </row>
